--- a/medicine/Enfance/Gustave_Fraipont/Gustave_Fraipont.xlsx
+++ b/medicine/Enfance/Gustave_Fraipont/Gustave_Fraipont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gustave Mathieu Joseph Fraipont, né à Saint-Josse-ten-Noode le 9 mai 1849[1] et mort à Paris 6e le 29 avril 1923[2], est un peintre, sculpteur, illustrateur et affichiste français d'origine belge.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gustave Mathieu Joseph Fraipont, né à Saint-Josse-ten-Noode le 9 mai 1849 et mort à Paris 6e le 29 avril 1923, est un peintre, sculpteur, illustrateur et affichiste français d'origine belge.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustave Fraipont est l'élève de Henri Hendrickx et d'Henri de Hern. Belge de naissance, il se fait naturaliser français après la guerre de 1870 pendant laquelle il s'était engagé dans l'armée française. Professeur de dessin à la Maison d'éducation de la Légion d'honneur, il est l’auteur de nombreux ouvrages sur la technique du dessin. En 1885, il fournit des illustrations pour la série Le Littoral de la France chez l’éditeur Victor Palmé. Il illustre également des livres sur Paris et les régions françaises.
 Il publie des livres pour la jeunesse tels que André le meunier et Yves le marin. Il illustre par ailleurs les Lettres de mon moulin, les Contes de Perrault, Robinson Crusoé, Câline de Zénaïde Fleuriot.
 Il réalise de nombreuses affiches pour les compagnies de chemin de fer, notamment les Chemins de fer de l'Ouest et du Nord, ainsi que des documents officiels et des titres papier. Son affiche Pierrefonds, compagnie du Nord fut reproduite dans la revue Les Maîtres de l'affiche (1895-1900).
-Il collabore à de nombreux journaux et revues, tels que le Courrier français et Paris illustré. Il fait partie des membres fondateurs de la Société des artistes lithographes français (1884)[3]. En 1905, il est nommé peintre de la Marine.
-Durant la Première Guerre mondiale, il réalise plusieurs compositions pour le journal L'Illustration, notamment sur les monuments détruits par la guerre : halles de Ypres, cathédrale de Reims et hôtel de ville d'Arras. En 1917, il est sollicité par la Banque de France pour un nouveau billet de 20 francs mais son projet n'est pas retenu[4].
-Mort à l'âge de 73 ans des suites d'une longue maladie[5], Gustave Fraipont était marié à Jeanne Charleux depuis octobre 1874[6] et était le père de Georges Fraipont (1873-1912), sociétaire de la Société des artistes français, également illustrateur d'ouvrages, mais surtout connu pour ses peintures. Il repose au cimetière du Père-Lachaise dans le caveau familial.
+Il collabore à de nombreux journaux et revues, tels que le Courrier français et Paris illustré. Il fait partie des membres fondateurs de la Société des artistes lithographes français (1884). En 1905, il est nommé peintre de la Marine.
+Durant la Première Guerre mondiale, il réalise plusieurs compositions pour le journal L'Illustration, notamment sur les monuments détruits par la guerre : halles de Ypres, cathédrale de Reims et hôtel de ville d'Arras. En 1917, il est sollicité par la Banque de France pour un nouveau billet de 20 francs mais son projet n'est pas retenu.
+Mort à l'âge de 73 ans des suites d'une longue maladie, Gustave Fraipont était marié à Jeanne Charleux depuis octobre 1874 et était le père de Georges Fraipont (1873-1912), sociétaire de la Société des artistes français, également illustrateur d'ouvrages, mais surtout connu pour ses peintures. Il repose au cimetière du Père-Lachaise dans le caveau familial.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Ouvrages illustrés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Bêtes à Paris: 36 sonnets par Ernest d'Hervilly, 1885
 Les Environs de Paris, texte de Louis Barron, Paris, Maison Quantin, 1886
@@ -575,7 +591,7 @@
 Le Monde végétal. Fleurs, plantes, fruits, 1899
 Les Procédés de reproduction en creux et la lithographie : eau-forte, pointe sèche, burin, lithographie, Paris, Henri Laurens, 1901, rééd. multiples
 Premiers éléments d'art décoratif (principes et applications), 1909
-Daniel de Foë, Robinson Crusoé, illustrations de G. Fraipont, Paris, Henri Laurens, [1910], multiples rééditions.
+Daniel de Foë, Robinson Crusoé, illustrations de G. Fraipont, Paris, Henri Laurens, , multiples rééditions.
 L'Art de peindre les fleurs à l'aquarelle, 1921
 L'Art de peindre les animaux à l'aquarelle, 1921
 La Jeunesse héroïque. Histoires vraies, préf. d'Edmond Haraucourt, Paris, F. Lointier, s.d.
@@ -607,10 +623,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur
-Gustave Fraipont est nommé chevalier de l'ordre national de la Légion d'honneur au titre du ministre de l'Instruction publique (décret du 31 décembre 1895)[7].
+Gustave Fraipont est nommé chevalier de l'ordre national de la Légion d'honneur au titre du ministre de l'Instruction publique (décret du 31 décembre 1895).
 </t>
         </is>
       </c>
